--- a/analyses/retrospective-cohorts/retrospective.feature_types_by_evidence.xlsx
+++ b/analyses/retrospective-cohorts/retrospective.feature_types_by_evidence.xlsx
@@ -7,12 +7,18 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="MEL sensitive" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MEL resistance" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MEL prognostic" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SU2C sensitive" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SU2C resistance" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SU2C prognostic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="KIRP sensitive profile counts" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="KIRP resistance profile counts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="KIRP prognostic profile counts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MEL sensitive profile counts" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MEL resistance profile counts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MEL prognostic profile counts" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="OS sensitive profile counts" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OS resistance profile counts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OS prognostic profile counts" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SU2C sensitive profile counts" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SU2C resistance profile counts" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SU2C prognostic profile counts" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,7 +61,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -483,22 +488,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +513,253 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rearrangement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Mutational signature</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tumor mutational burden</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aneuploidy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FDA-Approved</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Guideline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical trial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical evidence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preclinical</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Inferential</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Somatic variant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Somatic copy number</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -561,19 +797,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -598,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -608,16 +844,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -649,6 +885,468 @@
       </c>
       <c r="G8" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FDA-Approved</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Guideline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical trial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical evidence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preclinical</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Inferential</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Somatic variant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Somatic copy number</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rearrangement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Mutational signature</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tumor mutational burden</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aneuploidy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FDA-Approved</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Guideline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical trial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical evidence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preclinical</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Inferential</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Somatic variant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Somatic copy number</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rearrangement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Mutational signature</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tumor mutational burden</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aneuploidy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -717,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -742,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -948,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -973,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1029,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1110,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>137</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1176,22 +1874,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1204,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1251,22 +1949,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>63</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1291,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1304,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1410,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1435,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1641,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1666,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1722,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1803,7 +2501,700 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>137</v>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FDA-Approved</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Guideline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical trial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical evidence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preclinical</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Inferential</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Somatic variant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Somatic copy number</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rearrangement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Mutational signature</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tumor mutational burden</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aneuploidy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FDA-Approved</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Guideline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical trial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical evidence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preclinical</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Inferential</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Somatic variant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Somatic copy number</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rearrangement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Mutational signature</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tumor mutational burden</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aneuploidy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FDA-Approved</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Guideline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical trial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clinical evidence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preclinical</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Inferential</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Somatic variant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Somatic copy number</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rearrangement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Mutational signature</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tumor mutational burden</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aneuploidy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
